--- a/sse/综合数据分析（天）/重大事件明细.xlsx
+++ b/sse/综合数据分析（天）/重大事件明细.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21645" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>消息公布时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,14 +144,61 @@
   </si>
   <si>
     <t>2015.04.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息来源分类1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主流媒体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券时报</t>
+  </si>
+  <si>
+    <t>消息来源分类2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会证券基金机构监管部向汇添富、易方达和嘉实三家基金的风控总监了解风控情况（控制买创业板节奏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证监会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +221,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,9 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -212,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,7 +341,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,7 +375,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,21 +550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +588,14 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -556,8 +617,14 @@
       <c r="G2" t="s">
         <v>18</v>
       </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -579,8 +646,14 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -599,8 +672,14 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -622,8 +701,14 @@
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -645,8 +730,14 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -667,6 +758,38 @@
       </c>
       <c r="G7" t="s">
         <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -677,12 +800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,12 +813,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sse/综合数据分析（天）/重大事件明细.xlsx
+++ b/sse/综合数据分析（天）/重大事件明细.xlsx
@@ -12,16 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
-  <si>
-    <t>消息公布时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>消息相关政策实施时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +186,30 @@
   </si>
   <si>
     <t>证监会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.12.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非银同业存款不交存准(效果类似降准)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一财经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件发生事件（会议事件等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息公布时间（最早的一个时间点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.12.25 05:51</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,245 +570,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>36</v>
+      <c r="J9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/sse/综合数据分析（天）/重大事件明细.xlsx
+++ b/sse/综合数据分析（天）/重大事件明细.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>消息相关政策实施时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,15 +201,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事件发生事件（会议事件等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>消息公布时间（最早的一个时间点）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2014.12.25 05:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-05-19 06:02:00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大证券报头条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财经新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺激经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发改委一天披露近2500亿元投资项目包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件发生时间（会议事件等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发改委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院批转关于2015年深化经济体制改革重点工作的意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李克强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关政策文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连维良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《关于2015年深化经济体制改革重点工作的意见》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《中国制造2025》</t>
+  </si>
+  <si>
+    <t>国务院关于印发《中国制造2025》的通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-05-19 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,10 +358,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -582,18 +674,19 @@
     <col min="2" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="8" max="11" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -611,13 +704,25 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -639,14 +744,17 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -668,14 +776,17 @@
       <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>41</v>
       </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -694,14 +805,17 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -723,14 +837,20 @@
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>41</v>
       </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -752,14 +872,17 @@
       <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>41</v>
       </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -781,14 +904,17 @@
       <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>41</v>
       </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25">
+    <row r="8" spans="1:14" ht="14.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -807,16 +933,19 @@
       <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -836,17 +965,136 @@
       <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>45</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/19041519238671.shtml"/>
+    <hyperlink ref="H12" r:id="rId2" display="http://www.gov.cn/zhengce/content/2015-05/19/content_9784.htm"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/sse/综合数据分析（天）/重大事件明细.xlsx
+++ b/sse/综合数据分析（天）/重大事件明细.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="21645" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="19320" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>消息相关政策实施时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,14 +301,26 @@
   </si>
   <si>
     <t>国务院官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大证券报发布时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大证券报重复发布次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公文类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,6 +464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -486,6 +499,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,437 +675,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="8" max="11" width="19.25" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="1" max="3" width="32" customWidth="1"/>
+    <col min="4" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="10" max="14" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>41</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>41</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>41</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.25">
+    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>34</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>45</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>34</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>54</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="1"/>
+      <c r="M11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>34</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>60</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>61</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>70</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>71</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/19041519238671.shtml"/>
-    <hyperlink ref="H12" r:id="rId2" display="http://www.gov.cn/zhengce/content/2015-05/19/content_9784.htm"/>
+    <hyperlink ref="J11" r:id="rId1" display="http://stock.jrj.com.cn/2015/05/19041519238671.shtml"/>
+    <hyperlink ref="J12" r:id="rId2" display="http://www.gov.cn/zhengce/content/2015-05/19/content_9784.htm"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1099,12 +1125,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,12 +1138,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sse/综合数据分析（天）/重大事件明细.xlsx
+++ b/sse/综合数据分析（天）/重大事件明细.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="19320" windowHeight="6705"/>
@@ -319,8 +319,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,7 +464,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -499,7 +498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,24 +673,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="32" customWidth="1"/>
     <col min="4" max="5" width="21.875" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
     <col min="10" max="14" width="19.25" customWidth="1"/>
     <col min="16" max="16" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -745,7 +744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -777,7 +776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -809,7 +808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -838,7 +837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -874,7 +873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -906,7 +905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -938,7 +937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="14.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -967,7 +966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -999,7 +998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1125,12 +1124,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1138,12 +1137,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
